--- a/data/Analysis of data.xlsx
+++ b/data/Analysis of data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ClaireCampell/Desktop/Assignment_5/Assignment5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D6EC85-BCE9-1D46-9522-13F6AD077011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525D582F-8C27-D04B-AC57-CEB14D70436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{0FF3CD25-5A00-E84E-AC3A-49F74969CD46}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="2" xr2:uid="{0FF3CD25-5A00-E84E-AC3A-49F74969CD46}"/>
   </bookViews>
   <sheets>
     <sheet name="Version1" sheetId="1" r:id="rId1"/>
     <sheet name="Version2" sheetId="2" r:id="rId2"/>
+    <sheet name="ExpectedResults" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Vertices</t>
   </si>
@@ -51,20 +52,20 @@
     <t>Edge Count</t>
   </si>
   <si>
-    <t>Pc</t>
-  </si>
-  <si>
     <t>E log V</t>
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>Priority Queue Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,16 +73,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -89,12 +119,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +345,3380 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA" sz="1800" u="sng">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph comparing the number of operations to the theoretical performance bounds:</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Version1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E log V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Version1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>66.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.2674833210577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.137811912170378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.74117084629816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245.34452978042594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>318.9478887145537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>392.55124764868151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.43856189774725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>266.09640474436816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>345.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112.87712379549448</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>197.53496664211536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>282.1928094887362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366.8506523353571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>451.50849518197793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E91F-3C4E-B33B-59EEB2996C3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Version1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Version1!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2265</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2437</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E91F-3C4E-B33B-59EEB2996C3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="337483167"/>
+        <c:axId val="222525664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="337483167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222525664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222525664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337483167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" u="sng"/>
+              <a:t>Graph Comparing Total Operations to the Theoretical Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" u="sng" baseline="0"/>
+              <a:t> Bounds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800" u="sng"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Version2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Version2!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE4C-7F4B-8B31-6496DC71E77F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Version2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E log V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Version2!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>66.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.2674833210577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.137811912170378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.74117084629816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245.34452978042594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>318.9478887145537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>392.55124764868151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.43856189774725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>266.09640474436816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>345.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112.87712379549448</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>197.53496664211536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>282.1928094887362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366.8506523353571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>451.50849518197793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE4C-7F4B-8B31-6496DC71E77F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="512199456"/>
+        <c:axId val="512578928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="512199456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512578928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="512578928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512199456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Graph Comparing Total Operations to the Theoretical Performance Bounds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpectedResults!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ExpectedResults!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11C2-8C41-9701-2F7204D52F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpectedResults!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E log V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ExpectedResults!$D$2:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>66.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.2674833210577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.09640474436813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>280.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>345.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.137811912170378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.74117084629816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>245.34452978042594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>318.9478887145537</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>392.55124764868151</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.43856189774725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>186.26748332105768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>266.09640474436816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>345.92532616767858</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>425.754247590989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112.87712379549448</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>197.53496664211536</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>282.1928094887362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>366.8506523353571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>451.50849518197793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11C2-8C41-9701-2F7204D52F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="349135503"/>
+        <c:axId val="269396591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="349135503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269396591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269396591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349135503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64217AE2-1ECD-C541-FAF8-4A0AE6C47104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7F1CBC-90AC-3778-3099-FA3889A8C46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E11BF2-421B-DD1A-9D9F-2A2AFEDAC173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,899 +4021,1486 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="21">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <f>B2*LOG(A2,2)</f>
         <v>66.438561897747249</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="9">
         <f>C2+D2+E2</f>
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>55</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>73</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F26" si="0">B3*LOG(A3,2)</f>
         <v>116.2674833210577</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <f t="shared" ref="G3:G26" si="1">C3+D3+E3</f>
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>105</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="19">
         <v>111</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>166.09640474436813</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>65</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>170</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="19">
         <v>114</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>215.92532616767858</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>80</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>250</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="20">
         <v>114</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>265.754247590989</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>263</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="21">
         <v>174</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>86.438561897747249</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>35</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>301</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="19">
         <v>220</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>151.26748332105768</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="11">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>50</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>355</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <v>293</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>216.09640474436813</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>65</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>420</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="19">
         <v>312</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>280.92532616767858</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>80</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="20">
         <v>311</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>345.754247590989</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <f t="shared" si="1"/>
         <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>518</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>454</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>98.137811912170378</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>29</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>552</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="19">
         <v>502</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>171.74117084629816</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>1083</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>30</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>605</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="19">
         <v>550</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>245.34452978042594</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>1185</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>30</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>65</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>670</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="19">
         <v>600</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>318.9478887145537</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="11">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>80</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>30</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>750</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="20">
         <v>493</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>392.55124764868151</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="15">
         <f t="shared" si="1"/>
         <v>1273</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>40</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="8">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>765</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="21">
         <v>686</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>106.43856189774725</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>1485</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>40</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>37</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>799</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="19">
         <v>756</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="17">
         <f t="shared" si="0"/>
         <v>186.26748332105768</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
         <v>1592</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>50</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>39</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>854</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="19">
         <v>904</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="17">
         <f t="shared" si="0"/>
         <v>266.09640474436816</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>1797</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>65</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>40</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>920</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="19">
         <v>976</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>345.92532616767858</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
         <v>1936</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>80</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="14">
         <v>40</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="14">
         <v>1000</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="20">
         <v>872</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>425.754247590989</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="15">
         <f t="shared" si="1"/>
         <v>1912</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>50</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>42</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>1016</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>962</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>112.87712379549448</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>50</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>35</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>43</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>1048</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="19">
         <v>988</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>197.53496664211536</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="11">
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>50</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>50</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>47</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>1098</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="19">
         <v>1120</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="17">
         <f t="shared" si="0"/>
         <v>282.1928094887362</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="11">
         <f t="shared" si="1"/>
         <v>2265</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>50</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>65</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>49</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>1168</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="19">
         <v>1220</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="17">
         <f t="shared" si="0"/>
         <v>366.8506523353571</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
         <v>2437</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>50</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>80</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>50</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <v>1250</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="20">
         <v>1195</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
         <v>451.50849518197793</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="15">
         <f t="shared" si="1"/>
         <v>2495</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77073E8B-30D0-934C-9BFC-6738D728D017}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="8">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2*LOG(A2,2)</f>
+        <v>66.438561897747249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3" s="3">
+        <v>128</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D26" si="0">B3*LOG(A3,2)</f>
+        <v>116.2674833210577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C4" s="3">
+        <v>216</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>166.09640474436813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C5" s="3">
+        <v>284</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>215.92532616767858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C6" s="14">
+        <v>364</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>265.754247590989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C7" s="8">
+        <v>437</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>86.438561897747249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C8" s="3">
+        <v>521</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>151.26748332105768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C9" s="3">
+        <v>648</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>216.09640474436813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C10" s="3">
+        <v>732</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>280.92532616767858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C11" s="14">
+        <v>811</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>345.754247590989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>30</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C12" s="8">
+        <v>972</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>98.137811912170378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C13" s="3">
+        <v>1054</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>171.74117084629816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C14" s="3">
+        <v>1155</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>245.34452978042594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>30</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C15" s="3">
+        <v>1270</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>318.9478887145537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C16" s="14">
+        <v>1243</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>392.55124764868151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>40</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C17" s="8">
+        <v>1451</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>106.43856189774725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>40</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="C18" s="3">
+        <v>1555</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>186.26748332105768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="C19" s="3">
+        <v>1758</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>266.09640474436816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="C20" s="3">
+        <v>1896</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>345.92532616767858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>40</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="13">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="C21" s="14">
+        <v>1872</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>425.754247590989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>50</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="C22" s="8">
+        <v>1978</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>112.87712379549448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>50</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="C23" s="3">
+        <v>2036</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>197.53496664211536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>50</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="C24" s="3">
+        <v>2218</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>282.1928094887362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>50</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="C25" s="3">
+        <v>2388</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>366.8506523353571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>50</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>80</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2445</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>451.50849518197793</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F9946C-E7A6-A544-AF47-6BC426929173}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2*LOG(A2,2)</f>
+        <v>66.438561897747249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D26" si="0">B3*LOG(A3,2)</f>
+        <v>116.2674833210577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>102</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>166.09640474436813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>215.92532616767858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13">
+        <v>80</v>
+      </c>
+      <c r="C6" s="14">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>265.754247590989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>86.438561897747249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>151.26748332105768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>216.09640474436813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3">
+        <v>151</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>280.92532616767858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13">
+        <v>80</v>
+      </c>
+      <c r="C11" s="14">
+        <v>139</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>345.754247590989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>98.137811912170378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>171.74117084629816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>245.34452978042594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3">
+        <v>170</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>318.9478887145537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13">
+        <v>80</v>
+      </c>
+      <c r="C16" s="14">
+        <v>234</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>392.55124764868151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>106.43856189774725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>186.26748332105768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3">
+        <v>70</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>266.09640474436816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3">
+        <v>153</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>345.92532616767858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13">
+        <v>80</v>
+      </c>
+      <c r="C21" s="14">
+        <v>199</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>425.754247590989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>50</v>
+      </c>
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>112.87712379549448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>197.53496664211536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>282.1928094887362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3">
+        <v>112</v>
+      </c>
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>366.8506523353571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>50</v>
+      </c>
+      <c r="B26" s="13">
+        <v>80</v>
+      </c>
+      <c r="C26" s="14">
+        <v>149</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>451.50849518197793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>